--- a/CASOS DE TESTE STREAM MOVIES.xlsx
+++ b/CASOS DE TESTE STREAM MOVIES.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricks\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ricks\OneDrive\Área de Trabalho\Nova pasta (2)\novaPasta\SystemStream\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418A33E6-8E69-48A8-8F43-ECD5DC3C5240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED661597-3AD7-4CD4-B97F-7D11661ED91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{C065D06C-7590-49EA-8840-834D85AB9BDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="59">
   <si>
     <t>CENÁRIO</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>CT010.004 - Legibilidade e Acessibilidade</t>
+  </si>
+  <si>
+    <t>OK</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -373,6 +376,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD9CD3C9-D427-4742-9BFC-959E1532DA81}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -744,6 +748,9 @@
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="3" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
@@ -753,6 +760,9 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="4" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
@@ -763,6 +773,9 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
@@ -773,6 +786,9 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="6"/>
@@ -782,6 +798,9 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A7" s="6"/>
@@ -791,6 +810,9 @@
       <c r="C7" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
@@ -800,6 +822,9 @@
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -809,6 +834,9 @@
       <c r="C9" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -820,6 +848,9 @@
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -831,6 +862,9 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
@@ -841,6 +875,9 @@
       </c>
       <c r="C12" s="1" t="s">
         <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
@@ -851,6 +888,9 @@
       <c r="C13" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
@@ -861,6 +901,9 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="72" x14ac:dyDescent="0.3">
@@ -871,6 +914,9 @@
       <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
@@ -882,8 +928,11 @@
       <c r="C16" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" s="6"/>
       <c r="B17" s="3" t="s">
         <v>43</v>
@@ -891,8 +940,11 @@
       <c r="C17" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>42</v>
       </c>
@@ -902,8 +954,11 @@
       <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>45</v>
       </c>
@@ -913,8 +968,11 @@
       <c r="C19" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>49</v>
       </c>
@@ -924,8 +982,11 @@
       <c r="C20" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="72" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="6"/>
       <c r="B21" s="3" t="s">
         <v>52</v>
@@ -933,8 +994,11 @@
       <c r="C21" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="3" t="s">
         <v>54</v>
@@ -942,14 +1006,21 @@
       <c r="C22" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="7"/>
+    </row>
+    <row r="23" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="3" t="s">
         <v>57</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -962,5 +1033,6 @@
     <mergeCell ref="A4:A9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>